--- a/public/template_xls/template_os.xlsx
+++ b/public/template_xls/template_os.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankbtn-my.sharepoint.com/personal/ivan20057_btn_co_id/Documents/Documents/IES Portal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankbtn-my.sharepoint.com/personal/ivan20057_btn_co_id/Documents/Documents/IES Portal/template_xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{E4EF04D0-9D9C-46D9-B554-F86F215F04D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F0BDFD7-B85E-4FB1-B57A-CF52263DC42E}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{E4EF04D0-9D9C-46D9-B554-F86F215F04D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC988CCF-0E34-4498-91AE-CFACEDFAB9D1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Nama OS</t>
   </si>
@@ -46,12 +46,15 @@
   <si>
     <t>Linux</t>
   </si>
+  <si>
+    <t>*Note : Kolom isian tidak boleh kosong</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +66,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,9 +100,15 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,10 +124,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,39 +423,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270B27F8-6628-4531-966A-4408389C0925}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template_xls/template_os.xlsx
+++ b/public/template_xls/template_os.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankbtn-my.sharepoint.com/personal/ivan20057_btn_co_id/Documents/Documents/IES Portal/template_xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\template_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{E4EF04D0-9D9C-46D9-B554-F86F215F04D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC988CCF-0E34-4498-91AE-CFACEDFAB9D1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EC38E5-DA57-4905-9FFF-B634EF1BD889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -36,18 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Nama OS</t>
   </si>
   <si>
-    <t>Windows Server 2019</t>
+    <t>*Note : Kolom isian tidak boleh kosong</t>
   </si>
   <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>*Note : Kolom isian tidak boleh kosong</t>
+    <t>OS Contoh</t>
   </si>
 </sst>
 </file>
@@ -423,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270B27F8-6628-4531-966A-4408389C0925}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,16 +438,11 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
